--- a/Docs/暗盘.xlsx
+++ b/Docs/暗盘.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\Python\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Python\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HK.01034" sheetId="1" r:id="rId1"/>
+    <sheet name="HK.01801" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="265">
   <si>
     <t>code</t>
   </si>
@@ -597,6 +598,267 @@
   <si>
     <t>410买入</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTO_MATCH</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:30:00</t>
+  </si>
+  <si>
+    <t>HK.01801</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:29:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:28:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:27:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:26:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:25:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:24:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:20:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:19:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:16:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:13:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:12:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:09:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:04:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 18:03:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:59:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:58:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:57:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:56:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:51:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:49:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:48:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:47:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:44:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:43:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:42:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:37:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:36:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:28:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:27:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:25:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:23:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:22:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:21:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:19:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:16:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:14:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:13:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:12:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:11:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:10:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:09:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:08:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:07:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:04:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:03:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:01:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 17:00:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:57:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:55:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:54:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:51:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:50:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:48:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:47:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:46:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:45:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:44:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:41:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:40:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:39:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:38:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:37:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:36:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:35:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:34:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:33:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:32:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:31:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:30:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:29:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:28:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:27:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:26:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:25:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:23:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:21:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:17:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:16:00</t>
+  </si>
+  <si>
+    <t>2018-10-30 16:15:00</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>ticker_direction</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
 </sst>
 </file>
@@ -606,7 +868,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +921,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -747,7 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -777,6 +1046,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -787,74 +1059,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -874,7 +1078,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1153,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L740"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H240" sqref="H240"/>
     </sheetView>
@@ -19077,4 +19281,5209 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2">
+        <v>13.7</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>6850</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>6.618060650516054E+18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3">
+        <v>13.98</v>
+      </c>
+      <c r="E3">
+        <v>180000</v>
+      </c>
+      <c r="F3">
+        <v>2516400</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6.6180606676959232E+18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4">
+        <v>13.7</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>6850</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6.6180607965449421E+18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5">
+        <v>13.7</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>6850</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>6.6180608738543534E+18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6">
+        <v>13.7</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="F6">
+        <v>6850</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>6.6180609898184704E+18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7">
+        <v>13.7</v>
+      </c>
+      <c r="E7">
+        <v>1500</v>
+      </c>
+      <c r="F7">
+        <v>20550</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>6.6180610069983396E+18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8">
+        <v>13.98</v>
+      </c>
+      <c r="E8">
+        <v>461000</v>
+      </c>
+      <c r="F8">
+        <v>6444780</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>6.6180610628329144E+18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9">
+        <v>13.98</v>
+      </c>
+      <c r="E9">
+        <v>200000</v>
+      </c>
+      <c r="F9">
+        <v>2796000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6.6180612346316063E+18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10">
+        <v>13.9</v>
+      </c>
+      <c r="E10">
+        <v>15000</v>
+      </c>
+      <c r="F10">
+        <v>208500</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>6.6180622052942152E+18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11">
+        <v>13.9</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11">
+        <v>6950</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>6.6180622826036265E+18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12">
+        <v>13.9</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <v>6950</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>6.6180623427331686E+18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>13.98</v>
+      </c>
+      <c r="E13">
+        <v>859000</v>
+      </c>
+      <c r="F13">
+        <v>12008820</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6.6180627679349309E+18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14">
+        <v>13.9</v>
+      </c>
+      <c r="E14">
+        <v>34000</v>
+      </c>
+      <c r="F14">
+        <v>472600</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>6.6180631415970857E+18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15">
+        <v>13.9</v>
+      </c>
+      <c r="E15">
+        <v>50000</v>
+      </c>
+      <c r="F15">
+        <v>695000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>6.618063493784404E+18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16">
+        <v>13.86</v>
+      </c>
+      <c r="E16">
+        <v>49500</v>
+      </c>
+      <c r="F16">
+        <v>686070</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>6.6180636741730304E+18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17">
+        <v>13.84</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>13840</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>6.6180638416767549E+18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18">
+        <v>13.84</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="F18">
+        <v>6920</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>6.6180639275761009E+18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19">
+        <v>13.84</v>
+      </c>
+      <c r="E19">
+        <v>1500</v>
+      </c>
+      <c r="F19">
+        <v>20760</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>6.6180639791157084E+18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20">
+        <v>13.84</v>
+      </c>
+      <c r="E20">
+        <v>97500</v>
+      </c>
+      <c r="F20">
+        <v>1349400</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>6.6180639920006103E+18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21">
+        <v>13.84</v>
+      </c>
+      <c r="E21">
+        <v>500</v>
+      </c>
+      <c r="F21">
+        <v>6920</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>6.6180640521301524E+18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="15">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22">
+        <v>13.82</v>
+      </c>
+      <c r="E22">
+        <v>20000</v>
+      </c>
+      <c r="F22">
+        <v>276400</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>6.618064060720087E+18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="15">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23">
+        <v>13.84</v>
+      </c>
+      <c r="E23">
+        <v>144000</v>
+      </c>
+      <c r="F23">
+        <v>1992960</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>6.6180641680942694E+18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="15">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24">
+        <v>13.84</v>
+      </c>
+      <c r="E24">
+        <v>2500</v>
+      </c>
+      <c r="F24">
+        <v>34600</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>6.6180642067489751E+18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="15">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25">
+        <v>13.84</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
+      </c>
+      <c r="F25">
+        <v>6920</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>6.6180642668785172E+18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="15">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26">
+        <v>13.84</v>
+      </c>
+      <c r="E26">
+        <v>10000</v>
+      </c>
+      <c r="F26">
+        <v>138400</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>6.618064292648321E+18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="15">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27">
+        <v>13.84</v>
+      </c>
+      <c r="E27">
+        <v>500</v>
+      </c>
+      <c r="F27">
+        <v>6920</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>6.6180643527778632E+18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="15">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28">
+        <v>13.84</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+      <c r="F28">
+        <v>6920</v>
+      </c>
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>6.6180643570728305E+18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="15">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29">
+        <v>13.84</v>
+      </c>
+      <c r="E29">
+        <v>20000</v>
+      </c>
+      <c r="F29">
+        <v>276800</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>6.6180643656627651E+18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="15">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30">
+        <v>13.84</v>
+      </c>
+      <c r="E30">
+        <v>1000</v>
+      </c>
+      <c r="F30">
+        <v>13840</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>6.6180644343822418E+18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="15">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31">
+        <v>13.86</v>
+      </c>
+      <c r="E31">
+        <v>500</v>
+      </c>
+      <c r="F31">
+        <v>6930</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>6.6180644386772091E+18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="15">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32">
+        <v>13.82</v>
+      </c>
+      <c r="E32">
+        <v>50000</v>
+      </c>
+      <c r="F32">
+        <v>691000</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>6.6180644687419802E+18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="15">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33">
+        <v>13.86</v>
+      </c>
+      <c r="E33">
+        <v>40000</v>
+      </c>
+      <c r="F33">
+        <v>554400</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>6.618064597590999E+18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="15">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34">
+        <v>13.86</v>
+      </c>
+      <c r="E34">
+        <v>500</v>
+      </c>
+      <c r="F34">
+        <v>6930</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>6.6180646620155085E+18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="15">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35">
+        <v>13.86</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35">
+        <v>13860</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>6.6180647693896909E+18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="15">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36">
+        <v>13.86</v>
+      </c>
+      <c r="E36">
+        <v>500</v>
+      </c>
+      <c r="F36">
+        <v>6930</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>6.618064872468906E+18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="15">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" t="s">
+        <v>247</v>
+      </c>
+      <c r="D37">
+        <v>13.86</v>
+      </c>
+      <c r="E37">
+        <v>38000</v>
+      </c>
+      <c r="F37">
+        <v>526680</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>6.6180649712531538E+18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="15">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38">
+        <v>13.84</v>
+      </c>
+      <c r="E38">
+        <v>500</v>
+      </c>
+      <c r="F38">
+        <v>6920</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>6.6180650356776632E+18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="15">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D39">
+        <v>13.82</v>
+      </c>
+      <c r="E39">
+        <v>30000</v>
+      </c>
+      <c r="F39">
+        <v>414600</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>6.6180650743323689E+18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="15">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40">
+        <v>13.82</v>
+      </c>
+      <c r="E40">
+        <v>500</v>
+      </c>
+      <c r="F40">
+        <v>6910</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>6.6180653148505375E+18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="15">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41">
+        <v>13.82</v>
+      </c>
+      <c r="E41">
+        <v>32000</v>
+      </c>
+      <c r="F41">
+        <v>442240</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>6.6180653406203412E+18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="15">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42">
+        <v>13.8</v>
+      </c>
+      <c r="E42">
+        <v>500</v>
+      </c>
+      <c r="F42">
+        <v>6900</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>6.6180653964549161E+18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="15">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" t="s">
+        <v>246</v>
+      </c>
+      <c r="D43">
+        <v>13.8</v>
+      </c>
+      <c r="E43">
+        <v>5000</v>
+      </c>
+      <c r="F43">
+        <v>69000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>6.6180654050448507E+18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="15">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44">
+        <v>13.8</v>
+      </c>
+      <c r="E44">
+        <v>500</v>
+      </c>
+      <c r="F44">
+        <v>6900</v>
+      </c>
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>6.6180656112032809E+18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="15">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45">
+        <v>13.8</v>
+      </c>
+      <c r="E45">
+        <v>20000</v>
+      </c>
+      <c r="F45">
+        <v>276000</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>6.6180656541529539E+18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="15">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46">
+        <v>13.82</v>
+      </c>
+      <c r="E46">
+        <v>148000</v>
+      </c>
+      <c r="F46">
+        <v>2045360</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>6.6180656799227576E+18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="15">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47">
+        <v>13.8</v>
+      </c>
+      <c r="E47">
+        <v>500</v>
+      </c>
+      <c r="F47">
+        <v>6900</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>6.6180657615271363E+18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="15">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48">
+        <v>13.8</v>
+      </c>
+      <c r="E48">
+        <v>500</v>
+      </c>
+      <c r="F48">
+        <v>6900</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>6.61806578729694E+18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="15">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49">
+        <v>13.82</v>
+      </c>
+      <c r="E49">
+        <v>30000</v>
+      </c>
+      <c r="F49">
+        <v>414600</v>
+      </c>
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>6.6180660235201413E+18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="15">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50">
+        <v>13.82</v>
+      </c>
+      <c r="E50">
+        <v>20000</v>
+      </c>
+      <c r="F50">
+        <v>276400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50">
+        <v>6.6180660664698143E+18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="15">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51">
+        <v>13.82</v>
+      </c>
+      <c r="E51">
+        <v>500</v>
+      </c>
+      <c r="F51">
+        <v>6910</v>
+      </c>
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>6.6180664272470671E+18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="15">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52">
+        <v>13.82</v>
+      </c>
+      <c r="E52">
+        <v>10500</v>
+      </c>
+      <c r="F52">
+        <v>145110</v>
+      </c>
+      <c r="G52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <v>6.6180666892400722E+18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="15">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53">
+        <v>13.8</v>
+      </c>
+      <c r="E53">
+        <v>200000</v>
+      </c>
+      <c r="F53">
+        <v>2760000</v>
+      </c>
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>6.6180667193048433E+18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="15">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54">
+        <v>13.8</v>
+      </c>
+      <c r="E54">
+        <v>500</v>
+      </c>
+      <c r="F54">
+        <v>6900</v>
+      </c>
+      <c r="G54" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>6.6180667536645816E+18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="15">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55">
+        <v>13.8</v>
+      </c>
+      <c r="E55">
+        <v>500</v>
+      </c>
+      <c r="F55">
+        <v>6900</v>
+      </c>
+      <c r="G55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55">
+        <v>6.6180667794343854E+18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="15">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56">
+        <v>13.8</v>
+      </c>
+      <c r="E56">
+        <v>1000</v>
+      </c>
+      <c r="F56">
+        <v>13800</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>6.6180668009092219E+18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="15">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57">
+        <v>13.8</v>
+      </c>
+      <c r="E57">
+        <v>500</v>
+      </c>
+      <c r="F57">
+        <v>6900</v>
+      </c>
+      <c r="G57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>6.6180668266790257E+18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="15">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58">
+        <v>13.8</v>
+      </c>
+      <c r="E58">
+        <v>9500</v>
+      </c>
+      <c r="F58">
+        <v>131100</v>
+      </c>
+      <c r="G58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <v>6.6180668481538621E+18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="15">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59">
+        <v>13.8</v>
+      </c>
+      <c r="E59">
+        <v>500</v>
+      </c>
+      <c r="F59">
+        <v>6900</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>6.6180668481538621E+18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="15">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60">
+        <v>13.8</v>
+      </c>
+      <c r="E60">
+        <v>500</v>
+      </c>
+      <c r="F60">
+        <v>6900</v>
+      </c>
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>6.6180668739236659E+18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="15">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61">
+        <v>13.8</v>
+      </c>
+      <c r="E61">
+        <v>500</v>
+      </c>
+      <c r="F61">
+        <v>6900</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61">
+        <v>6.618066903988437E+18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="15">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62">
+        <v>13.8</v>
+      </c>
+      <c r="E62">
+        <v>10000</v>
+      </c>
+      <c r="F62">
+        <v>138000</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>6.6180670113626194E+18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="15">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63">
+        <v>13.76</v>
+      </c>
+      <c r="E63">
+        <v>500</v>
+      </c>
+      <c r="F63">
+        <v>6880</v>
+      </c>
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>6.6180671874562785E+18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="15">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64">
+        <v>13.76</v>
+      </c>
+      <c r="E64">
+        <v>1000</v>
+      </c>
+      <c r="F64">
+        <v>13760</v>
+      </c>
+      <c r="G64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64">
+        <v>6.6180673206002647E+18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="15">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65">
+        <v>13.76</v>
+      </c>
+      <c r="E65">
+        <v>100000</v>
+      </c>
+      <c r="F65">
+        <v>1376000</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65">
+        <v>6.618068050744705E+18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="15">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66">
+        <v>13.76</v>
+      </c>
+      <c r="E66">
+        <v>1000</v>
+      </c>
+      <c r="F66">
+        <v>13760</v>
+      </c>
+      <c r="G66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>6.6180681022843126E+18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="15">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67">
+        <v>13.76</v>
+      </c>
+      <c r="E67">
+        <v>500</v>
+      </c>
+      <c r="F67">
+        <v>6880</v>
+      </c>
+      <c r="G67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67">
+        <v>6.6180682783779717E+18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="15">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D68">
+        <v>13.76</v>
+      </c>
+      <c r="E68">
+        <v>500</v>
+      </c>
+      <c r="F68">
+        <v>6880</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68">
+        <v>6.6180683213276447E+18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="15">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69">
+        <v>13.76</v>
+      </c>
+      <c r="E69">
+        <v>10000</v>
+      </c>
+      <c r="F69">
+        <v>137600</v>
+      </c>
+      <c r="G69" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69">
+        <v>6.6180683342125466E+18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="15">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70">
+        <v>13.76</v>
+      </c>
+      <c r="E70">
+        <v>500</v>
+      </c>
+      <c r="F70">
+        <v>6880</v>
+      </c>
+      <c r="G70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70">
+        <v>6.6180683599823503E+18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="15">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71">
+        <v>13.76</v>
+      </c>
+      <c r="E71">
+        <v>500</v>
+      </c>
+      <c r="F71">
+        <v>6880</v>
+      </c>
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71">
+        <v>6.6180686133854208E+18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="15">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72">
+        <v>13.76</v>
+      </c>
+      <c r="E72">
+        <v>4500</v>
+      </c>
+      <c r="F72">
+        <v>61920</v>
+      </c>
+      <c r="G72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72">
+        <v>6.6180686262703227E+18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="15">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73">
+        <v>13.76</v>
+      </c>
+      <c r="E73">
+        <v>1500</v>
+      </c>
+      <c r="F73">
+        <v>20640</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73">
+        <v>6.6180687293495378E+18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="15">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74">
+        <v>13.76</v>
+      </c>
+      <c r="E74">
+        <v>500</v>
+      </c>
+      <c r="F74">
+        <v>6880</v>
+      </c>
+      <c r="G74" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74">
+        <v>6.6180688066589491E+18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="15">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75">
+        <v>13.76</v>
+      </c>
+      <c r="E75">
+        <v>500</v>
+      </c>
+      <c r="F75">
+        <v>6880</v>
+      </c>
+      <c r="G75" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75">
+        <v>6.6180688667884913E+18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="15">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76">
+        <v>13.76</v>
+      </c>
+      <c r="E76">
+        <v>1500</v>
+      </c>
+      <c r="F76">
+        <v>20640</v>
+      </c>
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76">
+        <v>6.6180688882633277E+18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="15">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77">
+        <v>13.76</v>
+      </c>
+      <c r="E77">
+        <v>20000</v>
+      </c>
+      <c r="F77">
+        <v>275200</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77">
+        <v>6.618068892558295E+18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="15">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78">
+        <v>13.76</v>
+      </c>
+      <c r="E78">
+        <v>500</v>
+      </c>
+      <c r="F78">
+        <v>6880</v>
+      </c>
+      <c r="G78" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78">
+        <v>6.6180689870475756E+18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="15">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" t="s">
+        <v>233</v>
+      </c>
+      <c r="D79">
+        <v>13.76</v>
+      </c>
+      <c r="E79">
+        <v>500</v>
+      </c>
+      <c r="F79">
+        <v>6880</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>6.6180691158965944E+18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="15">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" t="s">
+        <v>233</v>
+      </c>
+      <c r="D80">
+        <v>13.76</v>
+      </c>
+      <c r="E80">
+        <v>66500</v>
+      </c>
+      <c r="F80">
+        <v>915040</v>
+      </c>
+      <c r="G80" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80">
+        <v>6.6180692447456133E+18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="15">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" t="s">
+        <v>232</v>
+      </c>
+      <c r="D81">
+        <v>13.76</v>
+      </c>
+      <c r="E81">
+        <v>4000</v>
+      </c>
+      <c r="F81">
+        <v>55040</v>
+      </c>
+      <c r="G81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>6.6180695797530624E+18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="15">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82">
+        <v>13.72</v>
+      </c>
+      <c r="E82">
+        <v>200000</v>
+      </c>
+      <c r="F82">
+        <v>2744000</v>
+      </c>
+      <c r="G82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82">
+        <v>6.618069588342997E+18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="15">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83">
+        <v>13.72</v>
+      </c>
+      <c r="E83">
+        <v>3500</v>
+      </c>
+      <c r="F83">
+        <v>48020</v>
+      </c>
+      <c r="G83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83">
+        <v>6.6180697902064599E+18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="15">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84">
+        <v>13.72</v>
+      </c>
+      <c r="E84">
+        <v>500</v>
+      </c>
+      <c r="F84">
+        <v>6860</v>
+      </c>
+      <c r="G84" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84">
+        <v>6.6180698546309693E+18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="15">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s">
+        <v>231</v>
+      </c>
+      <c r="D85">
+        <v>13.72</v>
+      </c>
+      <c r="E85">
+        <v>500</v>
+      </c>
+      <c r="F85">
+        <v>6860</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85">
+        <v>6.6180700865592033E+18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="15">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" t="s">
+        <v>230</v>
+      </c>
+      <c r="D86">
+        <v>13.72</v>
+      </c>
+      <c r="E86">
+        <v>500</v>
+      </c>
+      <c r="F86">
+        <v>6860</v>
+      </c>
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86">
+        <v>6.6180708209986109E+18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="15">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" t="s">
+        <v>229</v>
+      </c>
+      <c r="D87">
+        <v>13.72</v>
+      </c>
+      <c r="E87">
+        <v>500</v>
+      </c>
+      <c r="F87">
+        <v>6860</v>
+      </c>
+      <c r="G87" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87">
+        <v>6.6180710271570412E+18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="15">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88">
+        <v>13.74</v>
+      </c>
+      <c r="E88">
+        <v>500</v>
+      </c>
+      <c r="F88">
+        <v>6870</v>
+      </c>
+      <c r="G88" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <v>6.618071082991616E+18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="15">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89">
+        <v>13.7</v>
+      </c>
+      <c r="E89">
+        <v>80000</v>
+      </c>
+      <c r="F89">
+        <v>1096000</v>
+      </c>
+      <c r="G89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>6.6180713836393267E+18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="15">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" t="s">
+        <v>228</v>
+      </c>
+      <c r="D90">
+        <v>13.74</v>
+      </c>
+      <c r="E90">
+        <v>500</v>
+      </c>
+      <c r="F90">
+        <v>6870</v>
+      </c>
+      <c r="G90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90">
+        <v>6.618071430883967E+18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="15">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91">
+        <v>13.74</v>
+      </c>
+      <c r="E91">
+        <v>500</v>
+      </c>
+      <c r="F91">
+        <v>6870</v>
+      </c>
+      <c r="G91" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91">
+        <v>6.6180716069776261E+18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="15">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" t="s">
+        <v>227</v>
+      </c>
+      <c r="D92">
+        <v>13.74</v>
+      </c>
+      <c r="E92">
+        <v>500</v>
+      </c>
+      <c r="F92">
+        <v>6870</v>
+      </c>
+      <c r="G92" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92">
+        <v>6.6180723070572954E+18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="15">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93">
+        <v>13.74</v>
+      </c>
+      <c r="E93">
+        <v>500</v>
+      </c>
+      <c r="F93">
+        <v>6870</v>
+      </c>
+      <c r="G93" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93">
+        <v>6.6180723113522627E+18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="15">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94">
+        <v>13.74</v>
+      </c>
+      <c r="E94">
+        <v>500</v>
+      </c>
+      <c r="F94">
+        <v>6870</v>
+      </c>
+      <c r="G94" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94">
+        <v>6.6180724530861834E+18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="15">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D95">
+        <v>13.74</v>
+      </c>
+      <c r="E95">
+        <v>500</v>
+      </c>
+      <c r="F95">
+        <v>6870</v>
+      </c>
+      <c r="G95" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95">
+        <v>6.6180726635395809E+18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="15">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96">
+        <v>13.74</v>
+      </c>
+      <c r="E96">
+        <v>500</v>
+      </c>
+      <c r="F96">
+        <v>6870</v>
+      </c>
+      <c r="G96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96">
+        <v>6.6180730071369646E+18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="15">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97">
+        <v>13.76</v>
+      </c>
+      <c r="E97">
+        <v>130000</v>
+      </c>
+      <c r="F97">
+        <v>1788800</v>
+      </c>
+      <c r="G97" t="s">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>6.6180731059212124E+18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="15">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98">
+        <v>13.76</v>
+      </c>
+      <c r="E98">
+        <v>500</v>
+      </c>
+      <c r="F98">
+        <v>6880</v>
+      </c>
+      <c r="G98" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98">
+        <v>6.6180731918205583E+18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="15">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" t="s">
+        <v>224</v>
+      </c>
+      <c r="D99">
+        <v>13.78</v>
+      </c>
+      <c r="E99">
+        <v>1000</v>
+      </c>
+      <c r="F99">
+        <v>13780</v>
+      </c>
+      <c r="G99" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99">
+        <v>6.618073419453825E+18</v>
+      </c>
+      <c r="I99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="15">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100">
+        <v>13.78</v>
+      </c>
+      <c r="E100">
+        <v>500</v>
+      </c>
+      <c r="F100">
+        <v>6890</v>
+      </c>
+      <c r="G100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100">
+        <v>6.6180740894687232E+18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="15">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101">
+        <v>13.8</v>
+      </c>
+      <c r="E101">
+        <v>500</v>
+      </c>
+      <c r="F101">
+        <v>6900</v>
+      </c>
+      <c r="G101" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101">
+        <v>6.6180742913321861E+18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="15">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>180</v>
+      </c>
+      <c r="C102" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102">
+        <v>13.8</v>
+      </c>
+      <c r="E102">
+        <v>500</v>
+      </c>
+      <c r="F102">
+        <v>6900</v>
+      </c>
+      <c r="G102" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102">
+        <v>6.6180745232604201E+18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="15">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>180</v>
+      </c>
+      <c r="C103" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103">
+        <v>13.8</v>
+      </c>
+      <c r="E103">
+        <v>13000</v>
+      </c>
+      <c r="F103">
+        <v>179400</v>
+      </c>
+      <c r="G103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H103">
+        <v>6.6180748067282616E+18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="15">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="C104" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104">
+        <v>13.76</v>
+      </c>
+      <c r="E104">
+        <v>36000</v>
+      </c>
+      <c r="F104">
+        <v>495360</v>
+      </c>
+      <c r="G104" t="s">
+        <v>6</v>
+      </c>
+      <c r="H104">
+        <v>6.6180749098074767E+18</v>
+      </c>
+      <c r="I104" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="15">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105">
+        <v>13.76</v>
+      </c>
+      <c r="E105">
+        <v>23000</v>
+      </c>
+      <c r="F105">
+        <v>316480</v>
+      </c>
+      <c r="G105" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105">
+        <v>6.6180749183974113E+18</v>
+      </c>
+      <c r="I105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="15">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106">
+        <v>13.7</v>
+      </c>
+      <c r="E106">
+        <v>90000</v>
+      </c>
+      <c r="F106">
+        <v>1233000</v>
+      </c>
+      <c r="G106" t="s">
+        <v>6</v>
+      </c>
+      <c r="H106">
+        <v>6.6180751374407434E+18</v>
+      </c>
+      <c r="I106" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="15">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107">
+        <v>13.7</v>
+      </c>
+      <c r="E107">
+        <v>500</v>
+      </c>
+      <c r="F107">
+        <v>6850</v>
+      </c>
+      <c r="G107" t="s">
+        <v>6</v>
+      </c>
+      <c r="H107">
+        <v>6.618075219045122E+18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="15">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108">
+        <v>13.7</v>
+      </c>
+      <c r="E108">
+        <v>69500</v>
+      </c>
+      <c r="F108">
+        <v>952150</v>
+      </c>
+      <c r="G108" t="s">
+        <v>6</v>
+      </c>
+      <c r="H108">
+        <v>6.6180754982179963E+18</v>
+      </c>
+      <c r="I108" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="15">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109">
+        <v>13.7</v>
+      </c>
+      <c r="E109">
+        <v>15000</v>
+      </c>
+      <c r="F109">
+        <v>205500</v>
+      </c>
+      <c r="G109" t="s">
+        <v>5</v>
+      </c>
+      <c r="H109">
+        <v>6.618075536872702E+18</v>
+      </c>
+      <c r="I109" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="15">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D110">
+        <v>13.7</v>
+      </c>
+      <c r="E110">
+        <v>5500</v>
+      </c>
+      <c r="F110">
+        <v>75350</v>
+      </c>
+      <c r="G110" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110">
+        <v>6.6180756356569498E+18</v>
+      </c>
+      <c r="I110" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="15">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" t="s">
+        <v>217</v>
+      </c>
+      <c r="D111">
+        <v>13.7</v>
+      </c>
+      <c r="E111">
+        <v>500</v>
+      </c>
+      <c r="F111">
+        <v>6850</v>
+      </c>
+      <c r="G111" t="s">
+        <v>6</v>
+      </c>
+      <c r="H111">
+        <v>6.6180757043764265E+18</v>
+      </c>
+      <c r="I111" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="15">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>180</v>
+      </c>
+      <c r="C112" t="s">
+        <v>216</v>
+      </c>
+      <c r="D112">
+        <v>13.7</v>
+      </c>
+      <c r="E112">
+        <v>500</v>
+      </c>
+      <c r="F112">
+        <v>6850</v>
+      </c>
+      <c r="G112" t="s">
+        <v>6</v>
+      </c>
+      <c r="H112">
+        <v>6.61807584181538E+18</v>
+      </c>
+      <c r="I112" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="15">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>180</v>
+      </c>
+      <c r="C113" t="s">
+        <v>216</v>
+      </c>
+      <c r="D113">
+        <v>13.76</v>
+      </c>
+      <c r="E113">
+        <v>500</v>
+      </c>
+      <c r="F113">
+        <v>6880</v>
+      </c>
+      <c r="G113" t="s">
+        <v>5</v>
+      </c>
+      <c r="H113">
+        <v>6.6180759062398894E+18</v>
+      </c>
+      <c r="I113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="15">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114">
+        <v>13.7</v>
+      </c>
+      <c r="E114">
+        <v>58500</v>
+      </c>
+      <c r="F114">
+        <v>801450</v>
+      </c>
+      <c r="G114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H114">
+        <v>6.6180764388158341E+18</v>
+      </c>
+      <c r="I114" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="15">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" t="s">
+        <v>215</v>
+      </c>
+      <c r="D115">
+        <v>13.7</v>
+      </c>
+      <c r="E115">
+        <v>15000</v>
+      </c>
+      <c r="F115">
+        <v>205500</v>
+      </c>
+      <c r="G115" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115">
+        <v>6.6180764645856379E+18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="15">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" t="s">
+        <v>215</v>
+      </c>
+      <c r="D116">
+        <v>13.7</v>
+      </c>
+      <c r="E116">
+        <v>1000</v>
+      </c>
+      <c r="F116">
+        <v>13700</v>
+      </c>
+      <c r="G116" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116">
+        <v>6.61807652471518E+18</v>
+      </c>
+      <c r="I116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="15">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" t="s">
+        <v>214</v>
+      </c>
+      <c r="D117">
+        <v>13.7</v>
+      </c>
+      <c r="E117">
+        <v>10000</v>
+      </c>
+      <c r="F117">
+        <v>137000</v>
+      </c>
+      <c r="G117" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117">
+        <v>6.6180771088307323E+18</v>
+      </c>
+      <c r="I117" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="15">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>180</v>
+      </c>
+      <c r="C118" t="s">
+        <v>213</v>
+      </c>
+      <c r="D118">
+        <v>13.68</v>
+      </c>
+      <c r="E118">
+        <v>500</v>
+      </c>
+      <c r="F118">
+        <v>6840</v>
+      </c>
+      <c r="G118" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118">
+        <v>6.6180778132053688E+18</v>
+      </c>
+      <c r="I118" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="15">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>180</v>
+      </c>
+      <c r="C119" t="s">
+        <v>212</v>
+      </c>
+      <c r="D119">
+        <v>13.68</v>
+      </c>
+      <c r="E119">
+        <v>500</v>
+      </c>
+      <c r="F119">
+        <v>6840</v>
+      </c>
+      <c r="G119" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119">
+        <v>6.6180778690399437E+18</v>
+      </c>
+      <c r="I119" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="15">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" t="s">
+        <v>212</v>
+      </c>
+      <c r="D120">
+        <v>13.7</v>
+      </c>
+      <c r="E120">
+        <v>1000</v>
+      </c>
+      <c r="F120">
+        <v>13700</v>
+      </c>
+      <c r="G120" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120">
+        <v>6.6180780794933412E+18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="15">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" t="s">
+        <v>211</v>
+      </c>
+      <c r="D121">
+        <v>13.7</v>
+      </c>
+      <c r="E121">
+        <v>5000</v>
+      </c>
+      <c r="F121">
+        <v>68500</v>
+      </c>
+      <c r="G121" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121">
+        <v>6.6180783157165425E+18</v>
+      </c>
+      <c r="I121" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="15">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" t="s">
+        <v>210</v>
+      </c>
+      <c r="D122">
+        <v>13.66</v>
+      </c>
+      <c r="E122">
+        <v>215000</v>
+      </c>
+      <c r="F122">
+        <v>2936900</v>
+      </c>
+      <c r="G122" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122">
+        <v>6.6180787967528796E+18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="15">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" t="s">
+        <v>209</v>
+      </c>
+      <c r="D123">
+        <v>13.62</v>
+      </c>
+      <c r="E123">
+        <v>1000</v>
+      </c>
+      <c r="F123">
+        <v>13620</v>
+      </c>
+      <c r="G123" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123">
+        <v>6.6180793465086935E+18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="15">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" t="s">
+        <v>208</v>
+      </c>
+      <c r="D124">
+        <v>13.6</v>
+      </c>
+      <c r="E124">
+        <v>156000</v>
+      </c>
+      <c r="F124">
+        <v>2121600</v>
+      </c>
+      <c r="G124" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124">
+        <v>6.618079599911764E+18</v>
+      </c>
+      <c r="I124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="15">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>180</v>
+      </c>
+      <c r="C125" t="s">
+        <v>207</v>
+      </c>
+      <c r="D125">
+        <v>13.64</v>
+      </c>
+      <c r="E125">
+        <v>500</v>
+      </c>
+      <c r="F125">
+        <v>6820</v>
+      </c>
+      <c r="G125" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125">
+        <v>6.618081442452734E+18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="15">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" t="s">
+        <v>206</v>
+      </c>
+      <c r="D126">
+        <v>13.66</v>
+      </c>
+      <c r="E126">
+        <v>1000</v>
+      </c>
+      <c r="F126">
+        <v>13660</v>
+      </c>
+      <c r="G126" t="s">
+        <v>5</v>
+      </c>
+      <c r="H126">
+        <v>6.6180817431004447E+18</v>
+      </c>
+      <c r="I126" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="15">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" t="s">
+        <v>205</v>
+      </c>
+      <c r="D127">
+        <v>13.68</v>
+      </c>
+      <c r="E127">
+        <v>1000</v>
+      </c>
+      <c r="F127">
+        <v>13680</v>
+      </c>
+      <c r="G127" t="s">
+        <v>5</v>
+      </c>
+      <c r="H127">
+        <v>6.618083126079914E+18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="15">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D128">
+        <v>13.68</v>
+      </c>
+      <c r="E128">
+        <v>500</v>
+      </c>
+      <c r="F128">
+        <v>6840</v>
+      </c>
+      <c r="G128" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128">
+        <v>6.6180833623031153E+18</v>
+      </c>
+      <c r="I128" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="15">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" t="s">
+        <v>203</v>
+      </c>
+      <c r="D129">
+        <v>13.72</v>
+      </c>
+      <c r="E129">
+        <v>1500</v>
+      </c>
+      <c r="F129">
+        <v>20580</v>
+      </c>
+      <c r="G129" t="s">
+        <v>5</v>
+      </c>
+      <c r="H129">
+        <v>6.6180837187854008E+18</v>
+      </c>
+      <c r="I129" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="15">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" t="s">
+        <v>202</v>
+      </c>
+      <c r="D130">
+        <v>13.7</v>
+      </c>
+      <c r="E130">
+        <v>1500</v>
+      </c>
+      <c r="F130">
+        <v>20550</v>
+      </c>
+      <c r="G130" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130">
+        <v>6.6180843415556588E+18</v>
+      </c>
+      <c r="I130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="15">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" t="s">
+        <v>202</v>
+      </c>
+      <c r="D131">
+        <v>13.72</v>
+      </c>
+      <c r="E131">
+        <v>2000</v>
+      </c>
+      <c r="F131">
+        <v>27440</v>
+      </c>
+      <c r="G131" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131">
+        <v>6.6180844446348739E+18</v>
+      </c>
+      <c r="I131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="15">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>180</v>
+      </c>
+      <c r="C132" t="s">
+        <v>201</v>
+      </c>
+      <c r="D132">
+        <v>13.74</v>
+      </c>
+      <c r="E132">
+        <v>90000</v>
+      </c>
+      <c r="F132">
+        <v>1236600</v>
+      </c>
+      <c r="G132" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132">
+        <v>6.6180846550882714E+18</v>
+      </c>
+      <c r="I132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="15">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>180</v>
+      </c>
+      <c r="C133" t="s">
+        <v>201</v>
+      </c>
+      <c r="D133">
+        <v>13.78</v>
+      </c>
+      <c r="E133">
+        <v>10000</v>
+      </c>
+      <c r="F133">
+        <v>137800</v>
+      </c>
+      <c r="G133" t="s">
+        <v>5</v>
+      </c>
+      <c r="H133">
+        <v>6.6180847667574211E+18</v>
+      </c>
+      <c r="I133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="15">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" t="s">
+        <v>200</v>
+      </c>
+      <c r="D134">
+        <v>13.74</v>
+      </c>
+      <c r="E134">
+        <v>2000</v>
+      </c>
+      <c r="F134">
+        <v>27480</v>
+      </c>
+      <c r="G134" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134">
+        <v>6.6180848741316035E+18</v>
+      </c>
+      <c r="I134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="15">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135" t="s">
+        <v>199</v>
+      </c>
+      <c r="D135">
+        <v>13.76</v>
+      </c>
+      <c r="E135">
+        <v>500</v>
+      </c>
+      <c r="F135">
+        <v>6880</v>
+      </c>
+      <c r="G135" t="s">
+        <v>6</v>
+      </c>
+      <c r="H135">
+        <v>6.6180855011968287E+18</v>
+      </c>
+      <c r="I135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="15">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>180</v>
+      </c>
+      <c r="C136" t="s">
+        <v>198</v>
+      </c>
+      <c r="D136">
+        <v>13.8</v>
+      </c>
+      <c r="E136">
+        <v>10000</v>
+      </c>
+      <c r="F136">
+        <v>138000</v>
+      </c>
+      <c r="G136" t="s">
+        <v>5</v>
+      </c>
+      <c r="H136">
+        <v>6.6180868068668867E+18</v>
+      </c>
+      <c r="I136" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="15">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D137">
+        <v>13.76</v>
+      </c>
+      <c r="E137">
+        <v>500</v>
+      </c>
+      <c r="F137">
+        <v>6880</v>
+      </c>
+      <c r="G137" t="s">
+        <v>6</v>
+      </c>
+      <c r="H137">
+        <v>6.6180870345001533E+18</v>
+      </c>
+      <c r="I137" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="15">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>180</v>
+      </c>
+      <c r="C138" t="s">
+        <v>196</v>
+      </c>
+      <c r="D138">
+        <v>13.76</v>
+      </c>
+      <c r="E138">
+        <v>17000</v>
+      </c>
+      <c r="F138">
+        <v>233920</v>
+      </c>
+      <c r="G138" t="s">
+        <v>6</v>
+      </c>
+      <c r="H138">
+        <v>6.6180873351478641E+18</v>
+      </c>
+      <c r="I138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="15">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139" t="s">
+        <v>195</v>
+      </c>
+      <c r="D139">
+        <v>13.76</v>
+      </c>
+      <c r="E139">
+        <v>8000</v>
+      </c>
+      <c r="F139">
+        <v>110080</v>
+      </c>
+      <c r="G139" t="s">
+        <v>5</v>
+      </c>
+      <c r="H139">
+        <v>6.6180874511119811E+18</v>
+      </c>
+      <c r="I139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="15">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" t="s">
+        <v>194</v>
+      </c>
+      <c r="D140">
+        <v>13.76</v>
+      </c>
+      <c r="E140">
+        <v>500</v>
+      </c>
+      <c r="F140">
+        <v>6880</v>
+      </c>
+      <c r="G140" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140">
+        <v>6.6180883960047862E+18</v>
+      </c>
+      <c r="I140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="15">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" t="s">
+        <v>194</v>
+      </c>
+      <c r="D141">
+        <v>13.8</v>
+      </c>
+      <c r="E141">
+        <v>202000</v>
+      </c>
+      <c r="F141">
+        <v>2787600</v>
+      </c>
+      <c r="G141" t="s">
+        <v>5</v>
+      </c>
+      <c r="H141">
+        <v>6.6180885892783145E+18</v>
+      </c>
+      <c r="I141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="15">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" t="s">
+        <v>193</v>
+      </c>
+      <c r="D142">
+        <v>13.82</v>
+      </c>
+      <c r="E142">
+        <v>1000</v>
+      </c>
+      <c r="F142">
+        <v>13820</v>
+      </c>
+      <c r="G142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>6.6180888985159598E+18</v>
+      </c>
+      <c r="I142" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="15">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>180</v>
+      </c>
+      <c r="C143" t="s">
+        <v>192</v>
+      </c>
+      <c r="D143">
+        <v>13.84</v>
+      </c>
+      <c r="E143">
+        <v>1500</v>
+      </c>
+      <c r="F143">
+        <v>20760</v>
+      </c>
+      <c r="G143" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143">
+        <v>6.6180900109124895E+18</v>
+      </c>
+      <c r="I143" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="15">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>180</v>
+      </c>
+      <c r="C144" t="s">
+        <v>191</v>
+      </c>
+      <c r="D144">
+        <v>13.84</v>
+      </c>
+      <c r="E144">
+        <v>20000</v>
+      </c>
+      <c r="F144">
+        <v>276800</v>
+      </c>
+      <c r="G144" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144">
+        <v>6.6180907195820933E+18</v>
+      </c>
+      <c r="I144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="15">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>180</v>
+      </c>
+      <c r="C145" t="s">
+        <v>191</v>
+      </c>
+      <c r="D145">
+        <v>13.84</v>
+      </c>
+      <c r="E145">
+        <v>20000</v>
+      </c>
+      <c r="F145">
+        <v>276800</v>
+      </c>
+      <c r="G145" t="s">
+        <v>5</v>
+      </c>
+      <c r="H145">
+        <v>6.6180909085606543E+18</v>
+      </c>
+      <c r="I145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="15">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>180</v>
+      </c>
+      <c r="C146" t="s">
+        <v>190</v>
+      </c>
+      <c r="D146">
+        <v>13.84</v>
+      </c>
+      <c r="E146">
+        <v>9500</v>
+      </c>
+      <c r="F146">
+        <v>131480</v>
+      </c>
+      <c r="G146" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146">
+        <v>6.6180911834385613E+18</v>
+      </c>
+      <c r="I146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="15">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>180</v>
+      </c>
+      <c r="C147" t="s">
+        <v>189</v>
+      </c>
+      <c r="D147">
+        <v>13.84</v>
+      </c>
+      <c r="E147">
+        <v>500</v>
+      </c>
+      <c r="F147">
+        <v>6920</v>
+      </c>
+      <c r="G147" t="s">
+        <v>6</v>
+      </c>
+      <c r="H147">
+        <v>6.6180917933239173E+18</v>
+      </c>
+      <c r="I147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="15">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>180</v>
+      </c>
+      <c r="C148" t="s">
+        <v>189</v>
+      </c>
+      <c r="D148">
+        <v>13.86</v>
+      </c>
+      <c r="E148">
+        <v>142000</v>
+      </c>
+      <c r="F148">
+        <v>1968120</v>
+      </c>
+      <c r="G148" t="s">
+        <v>5</v>
+      </c>
+      <c r="H148">
+        <v>6.6180919092880343E+18</v>
+      </c>
+      <c r="I148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="15">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>180</v>
+      </c>
+      <c r="C149" t="s">
+        <v>188</v>
+      </c>
+      <c r="D149">
+        <v>13.88</v>
+      </c>
+      <c r="E149">
+        <v>500</v>
+      </c>
+      <c r="F149">
+        <v>6940</v>
+      </c>
+      <c r="G149" t="s">
+        <v>5</v>
+      </c>
+      <c r="H149">
+        <v>6.618092514878423E+18</v>
+      </c>
+      <c r="I149" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="15">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>180</v>
+      </c>
+      <c r="C150" t="s">
+        <v>187</v>
+      </c>
+      <c r="D150">
+        <v>13.96</v>
+      </c>
+      <c r="E150">
+        <v>10000</v>
+      </c>
+      <c r="F150">
+        <v>139600</v>
+      </c>
+      <c r="G150" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150">
+        <v>6.6180928541808394E+18</v>
+      </c>
+      <c r="I150" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="15">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>180</v>
+      </c>
+      <c r="C151" t="s">
+        <v>186</v>
+      </c>
+      <c r="D151">
+        <v>13.96</v>
+      </c>
+      <c r="E151">
+        <v>5500</v>
+      </c>
+      <c r="F151">
+        <v>76780</v>
+      </c>
+      <c r="G151" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151">
+        <v>6.6180938162535137E+18</v>
+      </c>
+      <c r="I151" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="15">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" t="s">
+        <v>185</v>
+      </c>
+      <c r="D152">
+        <v>13.98</v>
+      </c>
+      <c r="E152">
+        <v>78000</v>
+      </c>
+      <c r="F152">
+        <v>1090440</v>
+      </c>
+      <c r="G152" t="s">
+        <v>5</v>
+      </c>
+      <c r="H152">
+        <v>6.6180940739515515E+18</v>
+      </c>
+      <c r="I152" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="15">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>180</v>
+      </c>
+      <c r="C153" t="s">
+        <v>185</v>
+      </c>
+      <c r="D153">
+        <v>14</v>
+      </c>
+      <c r="E153">
+        <v>2500</v>
+      </c>
+      <c r="F153">
+        <v>35000</v>
+      </c>
+      <c r="G153" t="s">
+        <v>5</v>
+      </c>
+      <c r="H153">
+        <v>6.6180941942106358E+18</v>
+      </c>
+      <c r="I153" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="15">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>180</v>
+      </c>
+      <c r="C154" t="s">
+        <v>185</v>
+      </c>
+      <c r="D154">
+        <v>14.02</v>
+      </c>
+      <c r="E154">
+        <v>500</v>
+      </c>
+      <c r="F154">
+        <v>7010</v>
+      </c>
+      <c r="G154" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154">
+        <v>6.6180942328653414E+18</v>
+      </c>
+      <c r="I154" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="15">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>180</v>
+      </c>
+      <c r="C155" t="s">
+        <v>185</v>
+      </c>
+      <c r="D155">
+        <v>14</v>
+      </c>
+      <c r="E155">
+        <v>500</v>
+      </c>
+      <c r="F155">
+        <v>7000</v>
+      </c>
+      <c r="G155" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155">
+        <v>6.6180942672250798E+18</v>
+      </c>
+      <c r="I155" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="15">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D156">
+        <v>14.02</v>
+      </c>
+      <c r="E156">
+        <v>6500</v>
+      </c>
+      <c r="F156">
+        <v>91130</v>
+      </c>
+      <c r="G156" t="s">
+        <v>5</v>
+      </c>
+      <c r="H156">
+        <v>6.6180943058797855E+18</v>
+      </c>
+      <c r="I156" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="15">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>180</v>
+      </c>
+      <c r="C157" t="s">
+        <v>184</v>
+      </c>
+      <c r="D157">
+        <v>14.02</v>
+      </c>
+      <c r="E157">
+        <v>1500</v>
+      </c>
+      <c r="F157">
+        <v>21030</v>
+      </c>
+      <c r="G157" t="s">
+        <v>6</v>
+      </c>
+      <c r="H157">
+        <v>6.6180943960740987E+18</v>
+      </c>
+      <c r="I157" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="15">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>180</v>
+      </c>
+      <c r="C158" t="s">
+        <v>184</v>
+      </c>
+      <c r="D158">
+        <v>14.04</v>
+      </c>
+      <c r="E158">
+        <v>9500</v>
+      </c>
+      <c r="F158">
+        <v>133380</v>
+      </c>
+      <c r="G158" t="s">
+        <v>5</v>
+      </c>
+      <c r="H158">
+        <v>6.618094400369066E+18</v>
+      </c>
+      <c r="I158" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="15">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>180</v>
+      </c>
+      <c r="C159" t="s">
+        <v>184</v>
+      </c>
+      <c r="D159">
+        <v>14.02</v>
+      </c>
+      <c r="E159">
+        <v>500</v>
+      </c>
+      <c r="F159">
+        <v>7010</v>
+      </c>
+      <c r="G159" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159">
+        <v>6.6180944089590006E+18</v>
+      </c>
+      <c r="I159" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="15">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>180</v>
+      </c>
+      <c r="C160" t="s">
+        <v>184</v>
+      </c>
+      <c r="D160">
+        <v>14.02</v>
+      </c>
+      <c r="E160">
+        <v>500</v>
+      </c>
+      <c r="F160">
+        <v>7010</v>
+      </c>
+      <c r="G160" t="s">
+        <v>6</v>
+      </c>
+      <c r="H160">
+        <v>6.6180944218439025E+18</v>
+      </c>
+      <c r="I160" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="15">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>180</v>
+      </c>
+      <c r="C161" t="s">
+        <v>184</v>
+      </c>
+      <c r="D161">
+        <v>14.04</v>
+      </c>
+      <c r="E161">
+        <v>7000</v>
+      </c>
+      <c r="F161">
+        <v>98280</v>
+      </c>
+      <c r="G161" t="s">
+        <v>5</v>
+      </c>
+      <c r="H161">
+        <v>6.6180944519086735E+18</v>
+      </c>
+      <c r="I161" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="15">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>180</v>
+      </c>
+      <c r="C162" t="s">
+        <v>184</v>
+      </c>
+      <c r="D162">
+        <v>14.04</v>
+      </c>
+      <c r="E162">
+        <v>73500</v>
+      </c>
+      <c r="F162">
+        <v>1031940</v>
+      </c>
+      <c r="G162" t="s">
+        <v>5</v>
+      </c>
+      <c r="H162">
+        <v>6.6180945249231176E+18</v>
+      </c>
+      <c r="I162" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="15">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>180</v>
+      </c>
+      <c r="C163" t="s">
+        <v>183</v>
+      </c>
+      <c r="D163">
+        <v>14.02</v>
+      </c>
+      <c r="E163">
+        <v>500</v>
+      </c>
+      <c r="F163">
+        <v>7010</v>
+      </c>
+      <c r="G163" t="s">
+        <v>6</v>
+      </c>
+      <c r="H163">
+        <v>6.6180946537721364E+18</v>
+      </c>
+      <c r="I163" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="15">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>180</v>
+      </c>
+      <c r="C164" t="s">
+        <v>183</v>
+      </c>
+      <c r="D164">
+        <v>14.04</v>
+      </c>
+      <c r="E164">
+        <v>500</v>
+      </c>
+      <c r="F164">
+        <v>7020</v>
+      </c>
+      <c r="G164" t="s">
+        <v>5</v>
+      </c>
+      <c r="H164">
+        <v>6.6180946881318748E+18</v>
+      </c>
+      <c r="I164" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="15">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>180</v>
+      </c>
+      <c r="C165" t="s">
+        <v>183</v>
+      </c>
+      <c r="D165">
+        <v>14.04</v>
+      </c>
+      <c r="E165">
+        <v>24500</v>
+      </c>
+      <c r="F165">
+        <v>343980</v>
+      </c>
+      <c r="G165" t="s">
+        <v>6</v>
+      </c>
+      <c r="H165">
+        <v>6.618094705311744E+18</v>
+      </c>
+      <c r="I165" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="15">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>180</v>
+      </c>
+      <c r="C166" t="s">
+        <v>183</v>
+      </c>
+      <c r="D166">
+        <v>14.04</v>
+      </c>
+      <c r="E166">
+        <v>500</v>
+      </c>
+      <c r="F166">
+        <v>7020</v>
+      </c>
+      <c r="G166" t="s">
+        <v>6</v>
+      </c>
+      <c r="H166">
+        <v>6.6180947439664497E+18</v>
+      </c>
+      <c r="I166" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="15">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>180</v>
+      </c>
+      <c r="C167" t="s">
+        <v>182</v>
+      </c>
+      <c r="D167">
+        <v>14.1</v>
+      </c>
+      <c r="E167">
+        <v>4500</v>
+      </c>
+      <c r="F167">
+        <v>63450</v>
+      </c>
+      <c r="G167" t="s">
+        <v>5</v>
+      </c>
+      <c r="H167">
+        <v>6.6180949071752069E+18</v>
+      </c>
+      <c r="I167" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="15">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>180</v>
+      </c>
+      <c r="C168" t="s">
+        <v>182</v>
+      </c>
+      <c r="D168">
+        <v>14.1</v>
+      </c>
+      <c r="E168">
+        <v>500</v>
+      </c>
+      <c r="F168">
+        <v>7050</v>
+      </c>
+      <c r="G168" t="s">
+        <v>6</v>
+      </c>
+      <c r="H168">
+        <v>6.6180949415349453E+18</v>
+      </c>
+      <c r="I168" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="15">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>180</v>
+      </c>
+      <c r="C169" t="s">
+        <v>182</v>
+      </c>
+      <c r="D169">
+        <v>14.1</v>
+      </c>
+      <c r="E169">
+        <v>500</v>
+      </c>
+      <c r="F169">
+        <v>7050</v>
+      </c>
+      <c r="G169" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169">
+        <v>6.6180949458299126E+18</v>
+      </c>
+      <c r="I169" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="15">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>180</v>
+      </c>
+      <c r="C170" t="s">
+        <v>182</v>
+      </c>
+      <c r="D170">
+        <v>14.1</v>
+      </c>
+      <c r="E170">
+        <v>500</v>
+      </c>
+      <c r="F170">
+        <v>7050</v>
+      </c>
+      <c r="G170" t="s">
+        <v>6</v>
+      </c>
+      <c r="H170">
+        <v>6.6180949715997164E+18</v>
+      </c>
+      <c r="I170" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="15">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>180</v>
+      </c>
+      <c r="C171" t="s">
+        <v>181</v>
+      </c>
+      <c r="D171">
+        <v>14.1</v>
+      </c>
+      <c r="E171">
+        <v>1000</v>
+      </c>
+      <c r="F171">
+        <v>14100</v>
+      </c>
+      <c r="G171" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171">
+        <v>6.6180951348084736E+18</v>
+      </c>
+      <c r="I171" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="15">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>180</v>
+      </c>
+      <c r="C172" t="s">
+        <v>181</v>
+      </c>
+      <c r="D172">
+        <v>14.1</v>
+      </c>
+      <c r="E172">
+        <v>3500</v>
+      </c>
+      <c r="F172">
+        <v>49350</v>
+      </c>
+      <c r="G172" t="s">
+        <v>6</v>
+      </c>
+      <c r="H172">
+        <v>6.6180951391034409E+18</v>
+      </c>
+      <c r="I172" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="15">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173">
+        <v>14.1</v>
+      </c>
+      <c r="E173">
+        <v>3000</v>
+      </c>
+      <c r="F173">
+        <v>42300</v>
+      </c>
+      <c r="G173" t="s">
+        <v>6</v>
+      </c>
+      <c r="H173">
+        <v>6.6180951648732447E+18</v>
+      </c>
+      <c r="I173" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="15">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>180</v>
+      </c>
+      <c r="C174" t="s">
+        <v>181</v>
+      </c>
+      <c r="D174">
+        <v>14.1</v>
+      </c>
+      <c r="E174">
+        <v>3000</v>
+      </c>
+      <c r="F174">
+        <v>42300</v>
+      </c>
+      <c r="G174" t="s">
+        <v>6</v>
+      </c>
+      <c r="H174">
+        <v>6.6180952292977541E+18</v>
+      </c>
+      <c r="I174" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="15">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175">
+        <v>14.1</v>
+      </c>
+      <c r="E175">
+        <v>3500</v>
+      </c>
+      <c r="F175">
+        <v>49350</v>
+      </c>
+      <c r="G175" t="s">
+        <v>6</v>
+      </c>
+      <c r="H175">
+        <v>6.6180952335927214E+18</v>
+      </c>
+      <c r="I175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="15">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176" t="s">
+        <v>181</v>
+      </c>
+      <c r="D176">
+        <v>14.1</v>
+      </c>
+      <c r="E176">
+        <v>6500</v>
+      </c>
+      <c r="F176">
+        <v>91650</v>
+      </c>
+      <c r="G176" t="s">
+        <v>5</v>
+      </c>
+      <c r="H176">
+        <v>6.6180952464776233E+18</v>
+      </c>
+      <c r="I176" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="15">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" t="s">
+        <v>181</v>
+      </c>
+      <c r="D177">
+        <v>14.1</v>
+      </c>
+      <c r="E177">
+        <v>500</v>
+      </c>
+      <c r="F177">
+        <v>7050</v>
+      </c>
+      <c r="G177" t="s">
+        <v>6</v>
+      </c>
+      <c r="H177">
+        <v>6.618095285132329E+18</v>
+      </c>
+      <c r="I177" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="15">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178">
+        <v>14.1</v>
+      </c>
+      <c r="E178">
+        <v>3500</v>
+      </c>
+      <c r="F178">
+        <v>49350</v>
+      </c>
+      <c r="G178" t="s">
+        <v>6</v>
+      </c>
+      <c r="H178">
+        <v>6.6180953323769692E+18</v>
+      </c>
+      <c r="I178" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="15">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" t="s">
+        <v>179</v>
+      </c>
+      <c r="D179">
+        <v>14.1</v>
+      </c>
+      <c r="E179">
+        <v>19500</v>
+      </c>
+      <c r="F179">
+        <v>274950</v>
+      </c>
+      <c r="G179" t="s">
+        <v>6</v>
+      </c>
+      <c r="H179">
+        <v>6.6180953495568384E+18</v>
+      </c>
+      <c r="I179" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>